--- a/run_log/run_results/train_history/training_history_run_19.xlsx
+++ b/run_log/run_results/train_history/training_history_run_19.xlsx
@@ -395,377 +395,377 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>0.04306953772902489</v>
+        <v>0.1059617549180984</v>
       </c>
       <c r="B2">
-        <v>0.9882826805114746</v>
+        <v>0.9682161808013916</v>
       </c>
       <c r="C2">
-        <v>0.006254947278648615</v>
+        <v>0.0132368877530098</v>
       </c>
       <c r="D2">
-        <v>0.9987037181854248</v>
+        <v>0.998595654964447</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>0.006770291831344366</v>
+        <v>0.03349165990948677</v>
       </c>
       <c r="B3">
-        <v>0.9984274506568909</v>
+        <v>0.9897164106369019</v>
       </c>
       <c r="C3">
-        <v>0.002112153451889753</v>
+        <v>0.006149070337414742</v>
       </c>
       <c r="D3">
-        <v>0.9991666674613953</v>
+        <v>0.9988117218017578</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>0.002587788738310337</v>
+        <v>0.02115354500710964</v>
       </c>
       <c r="B4">
-        <v>0.9992904663085938</v>
+        <v>0.993182361125946</v>
       </c>
       <c r="C4">
-        <v>0.002657934557646513</v>
+        <v>0.002184608718380332</v>
       </c>
       <c r="D4">
-        <v>0.9994444251060486</v>
+        <v>0.9990277886390686</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>0.001888870727270842</v>
+        <v>0.01290764007717371</v>
       </c>
       <c r="B5">
-        <v>0.9995205402374268</v>
+        <v>0.9960008263587952</v>
       </c>
       <c r="C5">
-        <v>0.002032065996900201</v>
+        <v>0.002385798608884215</v>
       </c>
       <c r="D5">
-        <v>0.9996296167373657</v>
+        <v>0.9995678663253784</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>0.001668795594014227</v>
+        <v>0.01142254751175642</v>
       </c>
       <c r="B6">
-        <v>0.9996931552886963</v>
+        <v>0.9961341619491577</v>
       </c>
       <c r="C6">
-        <v>0.0004254583036527038</v>
+        <v>0.00174883846193552</v>
       </c>
       <c r="D6">
-        <v>0.9998148083686829</v>
+        <v>0.9996759295463562</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>0.001211525755934417</v>
+        <v>0.01090620085597038</v>
       </c>
       <c r="B7">
-        <v>0.9996931552886963</v>
+        <v>0.996400773525238</v>
       </c>
       <c r="C7">
-        <v>5.009457890992053E-05</v>
+        <v>0.001958071952685714</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0.9996759295463562</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>0.000937611039262265</v>
+        <v>0.01061406265944242</v>
       </c>
       <c r="B8">
-        <v>0.9997890591621399</v>
+        <v>0.9964388608932495</v>
       </c>
       <c r="C8">
-        <v>0.0002630112576298416</v>
+        <v>0.0009690545848570764</v>
       </c>
       <c r="D8">
-        <v>0.9998148083686829</v>
+        <v>0.9996759295463562</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>0.0005164930480532348</v>
+        <v>0.01164072193205357</v>
       </c>
       <c r="B9">
-        <v>0.9999040961265564</v>
+        <v>0.9958294630050659</v>
       </c>
       <c r="C9">
-        <v>0.001025302452035248</v>
+        <v>0.0005478461389429867</v>
       </c>
       <c r="D9">
-        <v>0.9996296167373657</v>
+        <v>0.9997839331626892</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>0.0007071793079376221</v>
+        <v>0.01080966275185347</v>
       </c>
       <c r="B10">
-        <v>0.9998082518577576</v>
+        <v>0.9959818124771118</v>
       </c>
       <c r="C10">
-        <v>0.0006537363515235484</v>
+        <v>0.001090605393983424</v>
       </c>
       <c r="D10">
-        <v>0.9998148083686829</v>
+        <v>0.9996759295463562</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>0.0005662914481945336</v>
+        <v>0.01117768604308367</v>
       </c>
       <c r="B11">
-        <v>0.9998657703399658</v>
+        <v>0.9961150884628296</v>
       </c>
       <c r="C11">
-        <v>1.27965006413433E-06</v>
+        <v>0.0004921670770272613</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0.9997839331626892</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>0.0003186985559295863</v>
+        <v>0.01024078670889139</v>
       </c>
       <c r="B12">
-        <v>0.9999424815177917</v>
+        <v>0.996305525302887</v>
       </c>
       <c r="C12">
-        <v>2.39077309061031E-07</v>
+        <v>0.0004142569960094988</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0.999891996383667</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>0.0005510830087587237</v>
+        <v>0.01014704816043377</v>
       </c>
       <c r="B13">
-        <v>0.9998465776443481</v>
+        <v>0.996305525302887</v>
       </c>
       <c r="C13">
-        <v>3.003334541062941E-06</v>
+        <v>0.0006430239300243556</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0.9997839331626892</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>0.0008225732599385083</v>
+        <v>0.0106438510119915</v>
       </c>
       <c r="B14">
-        <v>0.9998657703399658</v>
+        <v>0.9959437251091003</v>
       </c>
       <c r="C14">
-        <v>3.413905247384719E-08</v>
+        <v>0.0007191959302872419</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0.9995678663253784</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>0.0003698570944834501</v>
+        <v>0.0102799516171217</v>
       </c>
       <c r="B15">
-        <v>0.9999232888221741</v>
+        <v>0.9962674379348755</v>
       </c>
       <c r="C15">
-        <v>1.0822913282027E-05</v>
+        <v>0.000441723212134093</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0.9997839331626892</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>8.124519081320614E-05</v>
+        <v>0.01002911385148764</v>
       </c>
       <c r="B16">
-        <v>0.9999616742134094</v>
+        <v>0.996305525302887</v>
       </c>
       <c r="C16">
-        <v>8.712418093637098E-06</v>
+        <v>0.0002851988829206675</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>0.999891996383667</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>2.06476470339112E-05</v>
+        <v>0.008964367210865021</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0.9960770010948181</v>
       </c>
       <c r="C17">
-        <v>6.544376810779795E-05</v>
+        <v>0.0006866762414574623</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0.9996759295463562</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>0.001174290664494038</v>
+        <v>0.008045049384236336</v>
       </c>
       <c r="B18">
-        <v>0.9997890591621399</v>
+        <v>0.9964578747749329</v>
       </c>
       <c r="C18">
-        <v>0.0003313057823106647</v>
+        <v>0.0004027200629934669</v>
       </c>
       <c r="D18">
-        <v>0.9999074339866638</v>
+        <v>0.9997839331626892</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>0.0003281771496403962</v>
+        <v>0.008178435266017914</v>
       </c>
       <c r="B19">
-        <v>0.9999232888221741</v>
+        <v>0.9960579872131348</v>
       </c>
       <c r="C19">
-        <v>4.904916931991465E-05</v>
+        <v>0.0005334122688509524</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0.9996759295463562</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>1.616377085156273E-05</v>
+        <v>0.0086591811850667</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>0.9959246516227722</v>
       </c>
       <c r="C20">
-        <v>5.004535523767117E-06</v>
+        <v>0.0007029973203316331</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>0.9996759295463562</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>0.0001317975984420627</v>
+        <v>0.008197599090635777</v>
       </c>
       <c r="B21">
-        <v>0.9999616742134094</v>
+        <v>0.9961150884628296</v>
       </c>
       <c r="C21">
-        <v>1.081462031038427E-07</v>
+        <v>0.0009974768618121743</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0.9996759295463562</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>7.964978067320772E-06</v>
+        <v>0.009743847884237766</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>0.9955628514289856</v>
       </c>
       <c r="C22">
-        <v>7.352114721470571E-07</v>
+        <v>0.0009251992451027036</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>0.9996759295463562</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>0.0005364460521377623</v>
+        <v>0.008353312499821186</v>
       </c>
       <c r="B23">
-        <v>0.9998849630355835</v>
+        <v>0.9959627389907837</v>
       </c>
       <c r="C23">
-        <v>0.0001534319744678214</v>
+        <v>0.0006093078409321606</v>
       </c>
       <c r="D23">
-        <v>0.9999074339866638</v>
+        <v>0.9996759295463562</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>0.001030498766340315</v>
+        <v>0.006967070046812296</v>
       </c>
       <c r="B24">
-        <v>0.9998082518577576</v>
+        <v>0.9967625737190247</v>
       </c>
       <c r="C24">
-        <v>4.557881766231731E-05</v>
+        <v>0.000425924634328112</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0.9996759295463562</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>5.97679681959562E-05</v>
+        <v>0.007844255305826664</v>
       </c>
       <c r="B25">
-        <v>0.9999808073043823</v>
+        <v>0.9961150884628296</v>
       </c>
       <c r="C25">
-        <v>1.298093593504746E-06</v>
+        <v>0.002170724561437964</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>0.9994598627090454</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>4.197897396807093E-06</v>
+        <v>0.009217933751642704</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>0.9959818124771118</v>
       </c>
       <c r="C26">
-        <v>2.948052724605077E-06</v>
+        <v>0.0008829801226966083</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0.9996759295463562</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>4.24520885644597E-06</v>
+        <v>0.006879780441522598</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>0.9969720840454102</v>
       </c>
       <c r="C27">
-        <v>1.91123717740993E-06</v>
+        <v>0.0004762225726153702</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>0.9996759295463562</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>0.0004053300654049963</v>
+        <v>0.008077841252088547</v>
       </c>
       <c r="B28">
-        <v>0.9999040961265564</v>
+        <v>0.9962865114212036</v>
       </c>
       <c r="C28">
-        <v>1.932682103245043E-08</v>
+        <v>0.0002237200533272699</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -773,13 +773,13 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>0.000285597488982603</v>
+        <v>0.007287364918738604</v>
       </c>
       <c r="B29">
-        <v>0.9998849630355835</v>
+        <v>0.9967244863510132</v>
       </c>
       <c r="C29">
-        <v>5.205323304835474E-06</v>
+        <v>0.0002091415226459503</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -787,251 +787,251 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>3.75051445189456E-06</v>
+        <v>0.007142229005694389</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>0.9965912103652954</v>
       </c>
       <c r="C30">
-        <v>7.925506650963143E-08</v>
+        <v>0.0003401002904865891</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>0.9997839331626892</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>2.333548036403954E-05</v>
+        <v>0.007677559275180101</v>
       </c>
       <c r="B31">
-        <v>0.9999808073043823</v>
+        <v>0.9963436126708984</v>
       </c>
       <c r="C31">
-        <v>5.841584993504512E-08</v>
+        <v>0.0005145927425473928</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>0.9997839331626892</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>0.000617354700807482</v>
+        <v>0.00825173407793045</v>
       </c>
       <c r="B32">
-        <v>0.9999040961265564</v>
+        <v>0.9960960745811462</v>
       </c>
       <c r="C32">
-        <v>0.0003350895713083446</v>
+        <v>0.002199297538027167</v>
       </c>
       <c r="D32">
-        <v>0.9998148083686829</v>
+        <v>0.9994598627090454</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>9.424302697880194E-05</v>
+        <v>0.008022965863347054</v>
       </c>
       <c r="B33">
-        <v>0.9999808073043823</v>
+        <v>0.9965150356292725</v>
       </c>
       <c r="C33">
-        <v>2.476733307332779E-08</v>
+        <v>0.0002842725079972297</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>0.999891996383667</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>0.0003528873785398901</v>
+        <v>0.007770373020321131</v>
       </c>
       <c r="B34">
-        <v>0.9999424815177917</v>
+        <v>0.9965340495109558</v>
       </c>
       <c r="C34">
-        <v>1.098259705401006E-08</v>
+        <v>0.0003144124348182231</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>0.999891996383667</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>0.0002472179767210037</v>
+        <v>0.008068548515439034</v>
       </c>
       <c r="B35">
-        <v>0.9999424815177917</v>
+        <v>0.9961341619491577</v>
       </c>
       <c r="C35">
-        <v>5.518947104876659E-11</v>
+        <v>0.0003090054087806493</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>0.999891996383667</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>0.0001309416693402454</v>
+        <v>0.00816953182220459</v>
       </c>
       <c r="B36">
-        <v>0.9999808073043823</v>
+        <v>0.9961341619491577</v>
       </c>
       <c r="C36">
-        <v>1.986819875288148E-10</v>
+        <v>0.0003810987109318376</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>0.999891996383667</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>9.047257481142879E-05</v>
+        <v>0.007525958120822906</v>
       </c>
       <c r="B37">
-        <v>0.9999808073043823</v>
+        <v>0.996229350566864</v>
       </c>
       <c r="C37">
-        <v>1.103789629142149E-11</v>
+        <v>0.0006407233886420727</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>0.9996759295463562</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>0.0005304350634105504</v>
+        <v>0.009212152101099491</v>
       </c>
       <c r="B38">
-        <v>0.9999232888221741</v>
+        <v>0.9959818124771118</v>
       </c>
       <c r="C38">
-        <v>1.294691553965777E-08</v>
+        <v>0.0005608850624412298</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>0.9997839331626892</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>5.419933586381376E-05</v>
+        <v>0.008061543107032776</v>
       </c>
       <c r="B39">
-        <v>0.9999808073043823</v>
+        <v>0.996400773525238</v>
       </c>
       <c r="C39">
-        <v>1.203129151861049E-09</v>
+        <v>0.0005313611472956836</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>0.9997839331626892</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>0.0003740790416486561</v>
+        <v>0.007982369512319565</v>
       </c>
       <c r="B40">
-        <v>0.9999616742134094</v>
+        <v>0.9962484240531921</v>
       </c>
       <c r="C40">
-        <v>4.001561393351949E-08</v>
+        <v>0.0007055760943330824</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>0.9997839331626892</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>0.0002735100570134819</v>
+        <v>0.006867211312055588</v>
       </c>
       <c r="B41">
-        <v>0.9999040961265564</v>
+        <v>0.9966863989830017</v>
       </c>
       <c r="C41">
-        <v>2.570235722032521E-07</v>
+        <v>0.0004861875204369426</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>0.9997839331626892</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>3.105471478193067E-06</v>
+        <v>0.008889189921319485</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>0.995753288269043</v>
       </c>
       <c r="C42">
-        <v>8.866210521318862E-08</v>
+        <v>0.0002071004564641044</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>0.999891996383667</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>0.0003843118611257523</v>
+        <v>0.007957781665027142</v>
       </c>
       <c r="B43">
-        <v>0.9999232888221741</v>
+        <v>0.9959246516227722</v>
       </c>
       <c r="C43">
-        <v>5.871532238188593E-08</v>
+        <v>0.0009704586700536311</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>0.9994598627090454</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>6.698403740301728E-05</v>
+        <v>0.007823970168828964</v>
       </c>
       <c r="B44">
-        <v>0.9999616742134094</v>
+        <v>0.9964578747749329</v>
       </c>
       <c r="C44">
-        <v>1.345692339782545E-06</v>
+        <v>0.001435461803339422</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>0.9994598627090454</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>8.69026844156906E-05</v>
+        <v>0.007396026980131865</v>
       </c>
       <c r="B45">
-        <v>0.9999616742134094</v>
+        <v>0.9966483116149902</v>
       </c>
       <c r="C45">
-        <v>4.516144969102243E-08</v>
+        <v>0.0003451579250395298</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>0.9997839331626892</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>8.708368000043265E-07</v>
+        <v>0.007174260448664427</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>0.9963817000389099</v>
       </c>
       <c r="C46">
-        <v>4.731555520720576E-07</v>
+        <v>0.0004143759433645755</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>0.9997839331626892</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>9.323143785877619E-07</v>
+        <v>0.00805114209651947</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>0.9960960745811462</v>
       </c>
       <c r="C47">
-        <v>2.640686602717324E-07</v>
+        <v>6.273632607189938E-05</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -1039,27 +1039,27 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>3.584601654438302E-05</v>
+        <v>0.007946528494358063</v>
       </c>
       <c r="B48">
-        <v>0.9999808073043823</v>
+        <v>0.9960770010948181</v>
       </c>
       <c r="C48">
-        <v>1.501150648230976E-09</v>
+        <v>0.0005030386964790523</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>0.9996759295463562</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>3.136677332804538E-05</v>
+        <v>0.00748318200930953</v>
       </c>
       <c r="B49">
-        <v>0.9999808073043823</v>
+        <v>0.9960579872131348</v>
       </c>
       <c r="C49">
-        <v>5.518948145710745E-11</v>
+        <v>9.917288116412237E-05</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -1067,13 +1067,13 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>8.798225280770566E-06</v>
+        <v>0.006906661204993725</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>0.9966863989830017</v>
       </c>
       <c r="C50">
-        <v>2.317955410946482E-10</v>
+        <v>5.495289951795712E-05</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -1081,13 +1081,13 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>6.961346343814512E-07</v>
+        <v>0.007994715124368668</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>0.9958294630050659</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>3.773679054575041E-05</v>
       </c>
       <c r="D51">
         <v>1</v>

--- a/run_log/run_results/train_history/training_history_run_19.xlsx
+++ b/run_log/run_results/train_history/training_history_run_19.xlsx
@@ -395,377 +395,377 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>0.1059617549180984</v>
+        <v>0.06366858631372452</v>
       </c>
       <c r="B2">
-        <v>0.9682161808013916</v>
+        <v>0.9831519722938538</v>
       </c>
       <c r="C2">
-        <v>0.0132368877530098</v>
+        <v>0.008906668983399868</v>
       </c>
       <c r="D2">
-        <v>0.998595654964447</v>
+        <v>0.9985330104827881</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>0.03349165990948677</v>
+        <v>0.01061982475221157</v>
       </c>
       <c r="B3">
-        <v>0.9897164106369019</v>
+        <v>0.9983243942260742</v>
       </c>
       <c r="C3">
-        <v>0.006149070337414742</v>
+        <v>0.005267607979476452</v>
       </c>
       <c r="D3">
-        <v>0.9988117218017578</v>
+        <v>0.9987286329269409</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>0.02115354500710964</v>
+        <v>0.005555095616728067</v>
       </c>
       <c r="B4">
-        <v>0.993182361125946</v>
+        <v>0.9988215565681458</v>
       </c>
       <c r="C4">
-        <v>0.002184608718380332</v>
+        <v>0.001552314730361104</v>
       </c>
       <c r="D4">
-        <v>0.9990277886390686</v>
+        <v>0.9993153810501099</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>0.01290764007717371</v>
+        <v>0.003641140414401889</v>
       </c>
       <c r="B5">
-        <v>0.9960008263587952</v>
+        <v>0.9992450475692749</v>
       </c>
       <c r="C5">
-        <v>0.002385798608884215</v>
+        <v>0.0004941453225910664</v>
       </c>
       <c r="D5">
-        <v>0.9995678663253784</v>
+        <v>0.9998043775558472</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>0.01142254751175642</v>
+        <v>0.002136968309059739</v>
       </c>
       <c r="B6">
-        <v>0.9961341619491577</v>
+        <v>0.9995765089988708</v>
       </c>
       <c r="C6">
-        <v>0.00174883846193552</v>
+        <v>0.0002020417159656063</v>
       </c>
       <c r="D6">
-        <v>0.9996759295463562</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>0.01090620085597038</v>
+        <v>0.001222585560753942</v>
       </c>
       <c r="B7">
-        <v>0.996400773525238</v>
+        <v>0.999760627746582</v>
       </c>
       <c r="C7">
-        <v>0.001958071952685714</v>
+        <v>0.0001328032521996647</v>
       </c>
       <c r="D7">
-        <v>0.9996759295463562</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>0.01061406265944242</v>
+        <v>0.0009182837675325572</v>
       </c>
       <c r="B8">
-        <v>0.9964388608932495</v>
+        <v>0.9997237920761108</v>
       </c>
       <c r="C8">
-        <v>0.0009690545848570764</v>
+        <v>9.245761611964554E-05</v>
       </c>
       <c r="D8">
-        <v>0.9996759295463562</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>0.01164072193205357</v>
+        <v>0.001980241155251861</v>
       </c>
       <c r="B9">
-        <v>0.9958294630050659</v>
+        <v>0.9996317625045776</v>
       </c>
       <c r="C9">
-        <v>0.0005478461389429867</v>
+        <v>0.0001364320487482473</v>
       </c>
       <c r="D9">
-        <v>0.9997839331626892</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>0.01080966275185347</v>
+        <v>0.0009803419234231114</v>
       </c>
       <c r="B10">
-        <v>0.9959818124771118</v>
+        <v>0.9997790455818176</v>
       </c>
       <c r="C10">
-        <v>0.001090605393983424</v>
+        <v>0.0001039370545186102</v>
       </c>
       <c r="D10">
-        <v>0.9996759295463562</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>0.01117768604308367</v>
+        <v>0.0006622901419177651</v>
       </c>
       <c r="B11">
-        <v>0.9961150884628296</v>
+        <v>0.9997974634170532</v>
       </c>
       <c r="C11">
-        <v>0.0004921670770272613</v>
+        <v>8.127058390527964E-05</v>
       </c>
       <c r="D11">
-        <v>0.9997839331626892</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>0.01024078670889139</v>
+        <v>0.001301989075727761</v>
       </c>
       <c r="B12">
-        <v>0.996305525302887</v>
+        <v>0.9997053742408752</v>
       </c>
       <c r="C12">
-        <v>0.0004142569960094988</v>
+        <v>4.765586345456541E-05</v>
       </c>
       <c r="D12">
-        <v>0.999891996383667</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>0.01014704816043377</v>
+        <v>0.0005972832441329956</v>
       </c>
       <c r="B13">
-        <v>0.996305525302887</v>
+        <v>0.9999263286590576</v>
       </c>
       <c r="C13">
-        <v>0.0006430239300243556</v>
+        <v>7.329156505875289E-05</v>
       </c>
       <c r="D13">
-        <v>0.9997839331626892</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>0.0106438510119915</v>
+        <v>0.0005894917412661016</v>
       </c>
       <c r="B14">
-        <v>0.9959437251091003</v>
+        <v>0.9998158812522888</v>
       </c>
       <c r="C14">
-        <v>0.0007191959302872419</v>
+        <v>1.234308001585305E-05</v>
       </c>
       <c r="D14">
-        <v>0.9995678663253784</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>0.0102799516171217</v>
+        <v>0.001299133407883346</v>
       </c>
       <c r="B15">
-        <v>0.9962674379348755</v>
+        <v>0.9997790455818176</v>
       </c>
       <c r="C15">
-        <v>0.000441723212134093</v>
+        <v>5.894942205486586E-06</v>
       </c>
       <c r="D15">
-        <v>0.9997839331626892</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>0.01002911385148764</v>
+        <v>0.0004160820972174406</v>
       </c>
       <c r="B16">
-        <v>0.996305525302887</v>
+        <v>0.9998711347579956</v>
       </c>
       <c r="C16">
-        <v>0.0002851988829206675</v>
+        <v>3.818998720817035E-06</v>
       </c>
       <c r="D16">
-        <v>0.999891996383667</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>0.008964367210865021</v>
+        <v>0.0003255673218518496</v>
       </c>
       <c r="B17">
-        <v>0.9960770010948181</v>
+        <v>0.9998894929885864</v>
       </c>
       <c r="C17">
-        <v>0.0006866762414574623</v>
+        <v>9.798271776162437E-07</v>
       </c>
       <c r="D17">
-        <v>0.9996759295463562</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>0.008045049384236336</v>
+        <v>0.0006824019947089255</v>
       </c>
       <c r="B18">
-        <v>0.9964578747749329</v>
+        <v>0.999760627746582</v>
       </c>
       <c r="C18">
-        <v>0.0004027200629934669</v>
+        <v>2.34931540035177E-05</v>
       </c>
       <c r="D18">
-        <v>0.9997839331626892</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>0.008178435266017914</v>
+        <v>7.379411545116454E-05</v>
       </c>
       <c r="B19">
-        <v>0.9960579872131348</v>
+        <v>0.9999815821647644</v>
       </c>
       <c r="C19">
-        <v>0.0005334122688509524</v>
+        <v>0.000165854042279534</v>
       </c>
       <c r="D19">
-        <v>0.9996759295463562</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>0.0086591811850667</v>
+        <v>0.001373500796034932</v>
       </c>
       <c r="B20">
-        <v>0.9959246516227722</v>
+        <v>0.9997790455818176</v>
       </c>
       <c r="C20">
-        <v>0.0007029973203316331</v>
+        <v>1.569732717143779E-06</v>
       </c>
       <c r="D20">
-        <v>0.9996759295463562</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>0.008197599090635777</v>
+        <v>0.0006420322461053729</v>
       </c>
       <c r="B21">
-        <v>0.9961150884628296</v>
+        <v>0.9997790455818176</v>
       </c>
       <c r="C21">
-        <v>0.0009974768618121743</v>
+        <v>1.524807157693431E-05</v>
       </c>
       <c r="D21">
-        <v>0.9996759295463562</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>0.009743847884237766</v>
+        <v>0.0006171134882606566</v>
       </c>
       <c r="B22">
-        <v>0.9955628514289856</v>
+        <v>0.9998711347579956</v>
       </c>
       <c r="C22">
-        <v>0.0009251992451027036</v>
+        <v>2.487443452992011E-05</v>
       </c>
       <c r="D22">
-        <v>0.9996759295463562</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>0.008353312499821186</v>
+        <v>0.0005082093412056565</v>
       </c>
       <c r="B23">
-        <v>0.9959627389907837</v>
+        <v>0.99985271692276</v>
       </c>
       <c r="C23">
-        <v>0.0006093078409321606</v>
+        <v>0.0007529320428147912</v>
       </c>
       <c r="D23">
-        <v>0.9996759295463562</v>
+        <v>0.9998043775558472</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>0.006967070046812296</v>
+        <v>0.0002891742915380746</v>
       </c>
       <c r="B24">
-        <v>0.9967625737190247</v>
+        <v>0.9999263286590576</v>
       </c>
       <c r="C24">
-        <v>0.000425924634328112</v>
+        <v>5.739016614825232E-06</v>
       </c>
       <c r="D24">
-        <v>0.9996759295463562</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>0.007844255305826664</v>
+        <v>0.0001173531345557421</v>
       </c>
       <c r="B25">
-        <v>0.9961150884628296</v>
+        <v>0.9999815821647644</v>
       </c>
       <c r="C25">
-        <v>0.002170724561437964</v>
+        <v>1.989830889215227E-05</v>
       </c>
       <c r="D25">
-        <v>0.9994598627090454</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>0.009217933751642704</v>
+        <v>9.582204802427441E-05</v>
       </c>
       <c r="B26">
-        <v>0.9959818124771118</v>
+        <v>0.9999447464942932</v>
       </c>
       <c r="C26">
-        <v>0.0008829801226966083</v>
+        <v>5.464713922265219E-06</v>
       </c>
       <c r="D26">
-        <v>0.9996759295463562</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>0.006879780441522598</v>
+        <v>0.0008906829752959311</v>
       </c>
       <c r="B27">
-        <v>0.9969720840454102</v>
+        <v>0.999907910823822</v>
       </c>
       <c r="C27">
-        <v>0.0004762225726153702</v>
+        <v>1.481008240489246E-07</v>
       </c>
       <c r="D27">
-        <v>0.9996759295463562</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>0.008077841252088547</v>
+        <v>0.0002216367283836007</v>
       </c>
       <c r="B28">
-        <v>0.9962865114212036</v>
+        <v>0.999907910823822</v>
       </c>
       <c r="C28">
-        <v>0.0002237200533272699</v>
+        <v>5.635368438561272E-08</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -773,13 +773,13 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>0.007287364918738604</v>
+        <v>4.225752491038293E-05</v>
       </c>
       <c r="B29">
-        <v>0.9967244863510132</v>
+        <v>1</v>
       </c>
       <c r="C29">
-        <v>0.0002091415226459503</v>
+        <v>3.041580853846426E-08</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -787,251 +787,251 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>0.007142229005694389</v>
+        <v>0.0003786913875956088</v>
       </c>
       <c r="B30">
-        <v>0.9965912103652954</v>
+        <v>0.9999263286590576</v>
       </c>
       <c r="C30">
-        <v>0.0003401002904865891</v>
+        <v>2.248880264232866E-06</v>
       </c>
       <c r="D30">
-        <v>0.9997839331626892</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>0.007677559275180101</v>
+        <v>0.0002162736491300166</v>
       </c>
       <c r="B31">
-        <v>0.9963436126708984</v>
+        <v>0.9999263286590576</v>
       </c>
       <c r="C31">
-        <v>0.0005145927425473928</v>
+        <v>3.182578112159717E-08</v>
       </c>
       <c r="D31">
-        <v>0.9997839331626892</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>0.00825173407793045</v>
+        <v>0.0003994805156253278</v>
       </c>
       <c r="B32">
-        <v>0.9960960745811462</v>
+        <v>0.9999631643295288</v>
       </c>
       <c r="C32">
-        <v>0.002199297538027167</v>
+        <v>1.375420595195465E-07</v>
       </c>
       <c r="D32">
-        <v>0.9994598627090454</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>0.008022965863347054</v>
+        <v>0.0002254263672512025</v>
       </c>
       <c r="B33">
-        <v>0.9965150356292725</v>
+        <v>0.9999263286590576</v>
       </c>
       <c r="C33">
-        <v>0.0002842725079972297</v>
+        <v>5.171299903850013E-07</v>
       </c>
       <c r="D33">
-        <v>0.999891996383667</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>0.007770373020321131</v>
+        <v>0.0003270395682193339</v>
       </c>
       <c r="B34">
-        <v>0.9965340495109558</v>
+        <v>0.9999447464942932</v>
       </c>
       <c r="C34">
-        <v>0.0003144124348182231</v>
+        <v>3.800854756264016E-06</v>
       </c>
       <c r="D34">
-        <v>0.999891996383667</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>0.008068548515439034</v>
+        <v>0.0007396579021587968</v>
       </c>
       <c r="B35">
-        <v>0.9961341619491577</v>
+        <v>0.9998711347579956</v>
       </c>
       <c r="C35">
-        <v>0.0003090054087806493</v>
+        <v>1.347218585578958E-07</v>
       </c>
       <c r="D35">
-        <v>0.999891996383667</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>0.00816953182220459</v>
+        <v>0.0001641543203731999</v>
       </c>
       <c r="B36">
-        <v>0.9961341619491577</v>
+        <v>0.9999447464942932</v>
       </c>
       <c r="C36">
-        <v>0.0003810987109318376</v>
+        <v>2.171018991248275E-07</v>
       </c>
       <c r="D36">
-        <v>0.999891996383667</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>0.007525958120822906</v>
+        <v>7.046959945000708E-05</v>
       </c>
       <c r="B37">
-        <v>0.996229350566864</v>
+        <v>0.9999815821647644</v>
       </c>
       <c r="C37">
-        <v>0.0006407233886420727</v>
+        <v>5.181912001717137E-07</v>
       </c>
       <c r="D37">
-        <v>0.9996759295463562</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>0.009212152101099491</v>
+        <v>4.265984534868039E-05</v>
       </c>
       <c r="B38">
-        <v>0.9959818124771118</v>
+        <v>0.9999815821647644</v>
       </c>
       <c r="C38">
-        <v>0.0005608850624412298</v>
+        <v>8.827152669255156E-06</v>
       </c>
       <c r="D38">
-        <v>0.9997839331626892</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>0.008061543107032776</v>
+        <v>1.936934131663293E-05</v>
       </c>
       <c r="B39">
-        <v>0.996400773525238</v>
+        <v>0.9999815821647644</v>
       </c>
       <c r="C39">
-        <v>0.0005313611472956836</v>
+        <v>3.473567858236493E-06</v>
       </c>
       <c r="D39">
-        <v>0.9997839331626892</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>0.007982369512319565</v>
+        <v>0.0005887700244784355</v>
       </c>
       <c r="B40">
-        <v>0.9962484240531921</v>
+        <v>0.9998894929885864</v>
       </c>
       <c r="C40">
-        <v>0.0007055760943330824</v>
+        <v>0.0002955517265945673</v>
       </c>
       <c r="D40">
-        <v>0.9997839331626892</v>
+        <v>0.9999021887779236</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>0.006867211312055588</v>
+        <v>0.0003093911800533533</v>
       </c>
       <c r="B41">
-        <v>0.9966863989830017</v>
+        <v>0.9999447464942932</v>
       </c>
       <c r="C41">
-        <v>0.0004861875204369426</v>
+        <v>4.290322763722543E-09</v>
       </c>
       <c r="D41">
-        <v>0.9997839331626892</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>0.008889189921319485</v>
+        <v>0.000224388757487759</v>
       </c>
       <c r="B42">
-        <v>0.995753288269043</v>
+        <v>0.9999263286590576</v>
       </c>
       <c r="C42">
-        <v>0.0002071004564641044</v>
+        <v>3.685969929279054E-08</v>
       </c>
       <c r="D42">
-        <v>0.999891996383667</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>0.007957781665027142</v>
+        <v>0.0003018028510268778</v>
       </c>
       <c r="B43">
-        <v>0.9959246516227722</v>
+        <v>0.9999631643295288</v>
       </c>
       <c r="C43">
-        <v>0.0009704586700536311</v>
+        <v>6.824495102364381E-08</v>
       </c>
       <c r="D43">
-        <v>0.9994598627090454</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>0.007823970168828964</v>
+        <v>9.885265171760693E-06</v>
       </c>
       <c r="B44">
-        <v>0.9964578747749329</v>
+        <v>1</v>
       </c>
       <c r="C44">
-        <v>0.001435461803339422</v>
+        <v>3.633481782117087E-08</v>
       </c>
       <c r="D44">
-        <v>0.9994598627090454</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>0.007396026980131865</v>
+        <v>0.0001811587135307491</v>
       </c>
       <c r="B45">
-        <v>0.9966483116149902</v>
+        <v>0.9999263286590576</v>
       </c>
       <c r="C45">
-        <v>0.0003451579250395298</v>
+        <v>2.005269283955613E-09</v>
       </c>
       <c r="D45">
-        <v>0.9997839331626892</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>0.007174260448664427</v>
+        <v>0.0005346070975065231</v>
       </c>
       <c r="B46">
-        <v>0.9963817000389099</v>
+        <v>0.999907910823822</v>
       </c>
       <c r="C46">
-        <v>0.0004143759433645755</v>
+        <v>4.253402039466891E-06</v>
       </c>
       <c r="D46">
-        <v>0.9997839331626892</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>0.00805114209651947</v>
+        <v>0.0002046288136625662</v>
       </c>
       <c r="B47">
-        <v>0.9960960745811462</v>
+        <v>0.9999447464942932</v>
       </c>
       <c r="C47">
-        <v>6.273632607189938E-05</v>
+        <v>1.447288298095373E-07</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -1039,27 +1039,27 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>0.007946528494358063</v>
+        <v>0.0003818174882326275</v>
       </c>
       <c r="B48">
-        <v>0.9960770010948181</v>
+        <v>0.9998894929885864</v>
       </c>
       <c r="C48">
-        <v>0.0005030386964790523</v>
+        <v>3.536594590514142E-07</v>
       </c>
       <c r="D48">
-        <v>0.9996759295463562</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>0.00748318200930953</v>
+        <v>0.000231315178098157</v>
       </c>
       <c r="B49">
-        <v>0.9960579872131348</v>
+        <v>0.9998894929885864</v>
       </c>
       <c r="C49">
-        <v>9.917288116412237E-05</v>
+        <v>1.325510545768793E-08</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -1067,13 +1067,13 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>0.006906661204993725</v>
+        <v>2.351991861360148E-05</v>
       </c>
       <c r="B50">
-        <v>0.9966863989830017</v>
+        <v>0.9999815821647644</v>
       </c>
       <c r="C50">
-        <v>5.495289951795712E-05</v>
+        <v>6.085639547848132E-09</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -1081,13 +1081,13 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>0.007994715124368668</v>
+        <v>1.007928858598461E-05</v>
       </c>
       <c r="B51">
-        <v>0.9958294630050659</v>
+        <v>1</v>
       </c>
       <c r="C51">
-        <v>3.773679054575041E-05</v>
+        <v>1.375708436057721E-09</v>
       </c>
       <c r="D51">
         <v>1</v>

--- a/run_log/run_results/train_history/training_history_run_19.xlsx
+++ b/run_log/run_results/train_history/training_history_run_19.xlsx
@@ -395,702 +395,702 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>0.06366858631372452</v>
+        <v>0.04532070457935333</v>
       </c>
       <c r="B2">
-        <v>0.9831519722938538</v>
+        <v>0.9880834817886353</v>
       </c>
       <c r="C2">
-        <v>0.008906668983399868</v>
+        <v>0.01455355249345303</v>
       </c>
       <c r="D2">
-        <v>0.9985330104827881</v>
+        <v>0.9979322552680969</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>0.01061982475221157</v>
+        <v>0.006729683838784695</v>
       </c>
       <c r="B3">
-        <v>0.9983243942260742</v>
+        <v>0.998579740524292</v>
       </c>
       <c r="C3">
-        <v>0.005267607979476452</v>
+        <v>0.00825185514986515</v>
       </c>
       <c r="D3">
-        <v>0.9987286329269409</v>
+        <v>0.9982503652572632</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>0.005555095616728067</v>
+        <v>0.002779328729957342</v>
       </c>
       <c r="B4">
-        <v>0.9988215565681458</v>
+        <v>0.9992205500602722</v>
       </c>
       <c r="C4">
-        <v>0.001552314730361104</v>
+        <v>0.004820717498660088</v>
       </c>
       <c r="D4">
-        <v>0.9993153810501099</v>
+        <v>0.9990456700325012</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>0.003641140414401889</v>
+        <v>0.001849205465987325</v>
       </c>
       <c r="B5">
-        <v>0.9992450475692749</v>
+        <v>0.9993937611579895</v>
       </c>
       <c r="C5">
-        <v>0.0004941453225910664</v>
+        <v>0.003767602378502488</v>
       </c>
       <c r="D5">
-        <v>0.9998043775558472</v>
+        <v>0.9995228052139282</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>0.002136968309059739</v>
+        <v>0.001067447359673679</v>
       </c>
       <c r="B6">
-        <v>0.9995765089988708</v>
+        <v>0.9996882081031799</v>
       </c>
       <c r="C6">
-        <v>0.0002020417159656063</v>
+        <v>0.001933840336278081</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0.9996818900108337</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>0.001222585560753942</v>
+        <v>0.0009955903515219688</v>
       </c>
       <c r="B7">
-        <v>0.999760627746582</v>
+        <v>0.9997401833534241</v>
       </c>
       <c r="C7">
-        <v>0.0001328032521996647</v>
+        <v>0.002882387489080429</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0.9995228052139282</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>0.0009182837675325572</v>
+        <v>0.0005075388471595943</v>
       </c>
       <c r="B8">
-        <v>0.9997237920761108</v>
+        <v>0.9999133944511414</v>
       </c>
       <c r="C8">
-        <v>9.245761611964554E-05</v>
+        <v>0.002420859644189477</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0.9998409152030945</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>0.001980241155251861</v>
+        <v>0.0009402516880072653</v>
       </c>
       <c r="B9">
-        <v>0.9996317625045776</v>
+        <v>0.9997748136520386</v>
       </c>
       <c r="C9">
-        <v>0.0001364320487482473</v>
+        <v>0.003609405132010579</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0.9995228052139282</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>0.0009803419234231114</v>
+        <v>0.0006790620973333716</v>
       </c>
       <c r="B10">
-        <v>0.9997790455818176</v>
+        <v>0.9998267889022827</v>
       </c>
       <c r="C10">
-        <v>0.0001039370545186102</v>
+        <v>0.002157599199563265</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0.9998409152030945</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>0.0006622901419177651</v>
+        <v>0.0007988324505276978</v>
       </c>
       <c r="B11">
-        <v>0.9997974634170532</v>
+        <v>0.9998267889022827</v>
       </c>
       <c r="C11">
-        <v>8.127058390527964E-05</v>
+        <v>0.001679276814684272</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0.9998409152030945</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>0.001301989075727761</v>
+        <v>0.0005113819497637451</v>
       </c>
       <c r="B12">
-        <v>0.9997053742408752</v>
+        <v>0.9998267889022827</v>
       </c>
       <c r="C12">
-        <v>4.765586345456541E-05</v>
+        <v>0.002561234869062901</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0.9998409152030945</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>0.0005972832441329956</v>
+        <v>0.0003231915470678359</v>
       </c>
       <c r="B13">
-        <v>0.9999263286590576</v>
+        <v>0.9999133944511414</v>
       </c>
       <c r="C13">
-        <v>7.329156505875289E-05</v>
+        <v>0.002869553165510297</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0.9998409152030945</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>0.0005894917412661016</v>
+        <v>0.0002747249382082373</v>
       </c>
       <c r="B14">
-        <v>0.9998158812522888</v>
+        <v>0.9999480247497559</v>
       </c>
       <c r="C14">
-        <v>1.234308001585305E-05</v>
+        <v>0.002480077790096402</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0.9998409152030945</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>0.001299133407883346</v>
+        <v>0.0004984524566680193</v>
       </c>
       <c r="B15">
-        <v>0.9997790455818176</v>
+        <v>0.9998614192008972</v>
       </c>
       <c r="C15">
-        <v>5.894942205486586E-06</v>
+        <v>0.005236788187175989</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0.9993637800216675</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>0.0004160820972174406</v>
+        <v>0.0007295574177987874</v>
       </c>
       <c r="B16">
-        <v>0.9998711347579956</v>
+        <v>0.9998614192008972</v>
       </c>
       <c r="C16">
-        <v>3.818998720817035E-06</v>
+        <v>0.003068211721256375</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>0.9996818900108337</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>0.0003255673218518496</v>
+        <v>0.0002776832261588424</v>
       </c>
       <c r="B17">
-        <v>0.9998894929885864</v>
+        <v>0.9999133944511414</v>
       </c>
       <c r="C17">
-        <v>9.798271776162437E-07</v>
+        <v>0.002934382064267993</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0.9998409152030945</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>0.0006824019947089255</v>
+        <v>0.000207410441362299</v>
       </c>
       <c r="B18">
-        <v>0.999760627746582</v>
+        <v>0.999930739402771</v>
       </c>
       <c r="C18">
-        <v>2.34931540035177E-05</v>
+        <v>0.002022790256887674</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0.9998409152030945</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>7.379411545116454E-05</v>
+        <v>9.976693399948999E-05</v>
       </c>
       <c r="B19">
-        <v>0.9999815821647644</v>
+        <v>0.9999480247497559</v>
       </c>
       <c r="C19">
-        <v>0.000165854042279534</v>
+        <v>0.002919256454333663</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0.9998409152030945</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>0.001373500796034932</v>
+        <v>0.0007795181008987129</v>
       </c>
       <c r="B20">
-        <v>0.9997790455818176</v>
+        <v>0.9998441338539124</v>
       </c>
       <c r="C20">
-        <v>1.569732717143779E-06</v>
+        <v>0.007741168141365051</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>0.9993637800216675</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>0.0006420322461053729</v>
+        <v>0.000288108189124614</v>
       </c>
       <c r="B21">
-        <v>0.9997790455818176</v>
+        <v>0.999930739402771</v>
       </c>
       <c r="C21">
-        <v>1.524807157693431E-05</v>
+        <v>0.002888735383749008</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0.9998409152030945</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>0.0006171134882606566</v>
+        <v>0.0001758837315719575</v>
       </c>
       <c r="B22">
-        <v>0.9998711347579956</v>
+        <v>0.999930739402771</v>
       </c>
       <c r="C22">
-        <v>2.487443452992011E-05</v>
+        <v>0.004064490552991629</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>0.9998409152030945</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>0.0005082093412056565</v>
+        <v>0.0001958083012141287</v>
       </c>
       <c r="B23">
-        <v>0.99985271692276</v>
+        <v>0.999930739402771</v>
       </c>
       <c r="C23">
-        <v>0.0007529320428147912</v>
+        <v>0.003381385933607817</v>
       </c>
       <c r="D23">
-        <v>0.9998043775558472</v>
+        <v>0.9998409152030945</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>0.0002891742915380746</v>
+        <v>0.0001945407857419923</v>
       </c>
       <c r="B24">
-        <v>0.9999263286590576</v>
+        <v>0.9999480247497559</v>
       </c>
       <c r="C24">
-        <v>5.739016614825232E-06</v>
+        <v>0.001682174042798579</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0.9998409152030945</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>0.0001173531345557421</v>
+        <v>4.539140354609117E-05</v>
       </c>
       <c r="B25">
-        <v>0.9999815821647644</v>
+        <v>0.9999826550483704</v>
       </c>
       <c r="C25">
-        <v>1.989830889215227E-05</v>
+        <v>0.003241832600906491</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>0.9998409152030945</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>9.582204802427441E-05</v>
+        <v>3.884140369336819E-06</v>
       </c>
       <c r="B26">
-        <v>0.9999447464942932</v>
+        <v>1</v>
       </c>
       <c r="C26">
-        <v>5.464713922265219E-06</v>
+        <v>0.003300892654806376</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0.9998409152030945</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>0.0008906829752959311</v>
+        <v>0.000387905485695228</v>
       </c>
       <c r="B27">
-        <v>0.999907910823822</v>
+        <v>0.9998787641525269</v>
       </c>
       <c r="C27">
-        <v>1.481008240489246E-07</v>
+        <v>0.01055101212114096</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>0.9993637800216675</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>0.0002216367283836007</v>
+        <v>0.000413994857808575</v>
       </c>
       <c r="B28">
-        <v>0.999907910823822</v>
+        <v>0.9999480247497559</v>
       </c>
       <c r="C28">
-        <v>5.635368438561272E-08</v>
+        <v>0.003726843278855085</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>0.9998409152030945</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>4.225752491038293E-05</v>
+        <v>0.0002354870375711471</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>0.999930739402771</v>
       </c>
       <c r="C29">
-        <v>3.041580853846426E-08</v>
+        <v>0.003831623122096062</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>0.9998409152030945</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>0.0003786913875956088</v>
+        <v>0.0005961621063761413</v>
       </c>
       <c r="B30">
-        <v>0.9999263286590576</v>
+        <v>0.9998960494995117</v>
       </c>
       <c r="C30">
-        <v>2.248880264232866E-06</v>
+        <v>0.002257796470075846</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>0.9998409152030945</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>0.0002162736491300166</v>
+        <v>0.0002154956018785015</v>
       </c>
       <c r="B31">
-        <v>0.9999263286590576</v>
+        <v>0.9999653697013855</v>
       </c>
       <c r="C31">
-        <v>3.182578112159717E-08</v>
+        <v>0.002923784544691443</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>0.9998409152030945</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>0.0003994805156253278</v>
+        <v>7.158840890042484E-05</v>
       </c>
       <c r="B32">
-        <v>0.9999631643295288</v>
+        <v>0.9999826550483704</v>
       </c>
       <c r="C32">
-        <v>1.375420595195465E-07</v>
+        <v>0.00351674621924758</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>0.9998409152030945</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>0.0002254263672512025</v>
+        <v>5.663035699399188E-05</v>
       </c>
       <c r="B33">
-        <v>0.9999263286590576</v>
+        <v>0.9999826550483704</v>
       </c>
       <c r="C33">
-        <v>5.171299903850013E-07</v>
+        <v>0.003559830598533154</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>0.9998409152030945</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>0.0003270395682193339</v>
+        <v>0.0007135042105801404</v>
       </c>
       <c r="B34">
-        <v>0.9999447464942932</v>
+        <v>0.9998960494995117</v>
       </c>
       <c r="C34">
-        <v>3.800854756264016E-06</v>
+        <v>0.003667050739750266</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>0.9998409152030945</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>0.0007396579021587968</v>
+        <v>6.492033571703359E-05</v>
       </c>
       <c r="B35">
-        <v>0.9998711347579956</v>
+        <v>0.9999653697013855</v>
       </c>
       <c r="C35">
-        <v>1.347218585578958E-07</v>
+        <v>0.004719800315797329</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>0.9998409152030945</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>0.0001641543203731999</v>
+        <v>4.222943971399218E-05</v>
       </c>
       <c r="B36">
-        <v>0.9999447464942932</v>
+        <v>0.9999653697013855</v>
       </c>
       <c r="C36">
-        <v>2.171018991248275E-07</v>
+        <v>0.005185364745557308</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>0.9998409152030945</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>7.046959945000708E-05</v>
+        <v>0.0007182385306805372</v>
       </c>
       <c r="B37">
-        <v>0.9999815821647644</v>
+        <v>0.9998960494995117</v>
       </c>
       <c r="C37">
-        <v>5.181912001717137E-07</v>
+        <v>0.004706124775111675</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>0.9998409152030945</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>4.265984534868039E-05</v>
+        <v>0.0002963297010865062</v>
       </c>
       <c r="B38">
-        <v>0.9999815821647644</v>
+        <v>0.9999653697013855</v>
       </c>
       <c r="C38">
-        <v>8.827152669255156E-06</v>
+        <v>0.002819443121552467</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>0.9998409152030945</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>1.936934131663293E-05</v>
+        <v>1.656264612392988E-05</v>
       </c>
       <c r="B39">
-        <v>0.9999815821647644</v>
+        <v>1</v>
       </c>
       <c r="C39">
-        <v>3.473567858236493E-06</v>
+        <v>0.003333253785967827</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>0.9998409152030945</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>0.0005887700244784355</v>
+        <v>2.228045559604652E-05</v>
       </c>
       <c r="B40">
-        <v>0.9998894929885864</v>
+        <v>0.9999826550483704</v>
       </c>
       <c r="C40">
-        <v>0.0002955517265945673</v>
+        <v>0.001885955804027617</v>
       </c>
       <c r="D40">
-        <v>0.9999021887779236</v>
+        <v>0.9998409152030945</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>0.0003093911800533533</v>
+        <v>0.0001259826822206378</v>
       </c>
       <c r="B41">
-        <v>0.9999447464942932</v>
+        <v>0.9999826550483704</v>
       </c>
       <c r="C41">
-        <v>4.290322763722543E-09</v>
+        <v>0.004139212425798178</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>0.9998409152030945</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>0.000224388757487759</v>
+        <v>0.0003364986623637378</v>
       </c>
       <c r="B42">
-        <v>0.9999263286590576</v>
+        <v>0.9999480247497559</v>
       </c>
       <c r="C42">
-        <v>3.685969929279054E-08</v>
+        <v>0.001209948444738984</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>0.9998409152030945</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>0.0003018028510268778</v>
+        <v>0.0004184081044513732</v>
       </c>
       <c r="B43">
-        <v>0.9999631643295288</v>
+        <v>0.999930739402771</v>
       </c>
       <c r="C43">
-        <v>6.824495102364381E-08</v>
+        <v>0.003793918527662754</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>0.9998409152030945</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>9.885265171760693E-06</v>
+        <v>0.0001270915963687003</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>0.9999653697013855</v>
       </c>
       <c r="C44">
-        <v>3.633481782117087E-08</v>
+        <v>0.002419582102447748</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>0.9998409152030945</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>0.0001811587135307491</v>
+        <v>2.880026113416534E-05</v>
       </c>
       <c r="B45">
-        <v>0.9999263286590576</v>
+        <v>0.9999826550483704</v>
       </c>
       <c r="C45">
-        <v>2.005269283955613E-09</v>
+        <v>0.003060686634853482</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>0.9998409152030945</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>0.0005346070975065231</v>
+        <v>0.0002027652226388454</v>
       </c>
       <c r="B46">
-        <v>0.999907910823822</v>
+        <v>0.999930739402771</v>
       </c>
       <c r="C46">
-        <v>4.253402039466891E-06</v>
+        <v>0.00438923854380846</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>0.9998409152030945</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>0.0002046288136625662</v>
+        <v>3.863522408664721E-07</v>
       </c>
       <c r="B47">
-        <v>0.9999447464942932</v>
+        <v>1</v>
       </c>
       <c r="C47">
-        <v>1.447288298095373E-07</v>
+        <v>0.004420455545186996</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>0.9998409152030945</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>0.0003818174882326275</v>
+        <v>0.0002706336381379515</v>
       </c>
       <c r="B48">
-        <v>0.9998894929885864</v>
+        <v>0.9999653697013855</v>
       </c>
       <c r="C48">
-        <v>3.536594590514142E-07</v>
+        <v>0.002682194812223315</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>0.9996818900108337</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>0.000231315178098157</v>
+        <v>0.0001825051876949146</v>
       </c>
       <c r="B49">
-        <v>0.9998894929885864</v>
+        <v>0.9999653697013855</v>
       </c>
       <c r="C49">
-        <v>1.325510545768793E-08</v>
+        <v>0.003198240185156465</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>0.9998409152030945</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>2.351991861360148E-05</v>
+        <v>7.32923899704474E-06</v>
       </c>
       <c r="B50">
-        <v>0.9999815821647644</v>
+        <v>1</v>
       </c>
       <c r="C50">
-        <v>6.085639547848132E-09</v>
+        <v>0.003171787364408374</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>0.9998409152030945</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>1.007928858598461E-05</v>
+        <v>4.327342537635559E-07</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
       <c r="C51">
-        <v>1.375708436057721E-09</v>
+        <v>0.003686871146783233</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>0.9998409152030945</v>
       </c>
     </row>
   </sheetData>
